--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3825.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3825.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.263122209901181</v>
+        <v>5.188019275665283</v>
       </c>
       <c r="B1">
-        <v>1.587696239308897</v>
+        <v>3.908146619796753</v>
       </c>
       <c r="C1">
-        <v>2.299533733140229</v>
+        <v>3.84501576423645</v>
       </c>
       <c r="D1">
-        <v>5.399941661719703</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>2.713199726863251</v>
+        <v>3.506923198699951</v>
       </c>
     </row>
   </sheetData>
